--- a/biology/Zoologie/Gerbillus_brockmani/Gerbillus_brockmani.xlsx
+++ b/biology/Zoologie/Gerbillus_brockmani/Gerbillus_brockmani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus brockmani ou Gerbillus (Hendecapleura) brockmani est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés qui n'a été observée que dans le nord de la Somalie.
 </t>
